--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,45 +471,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Strbac</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bojana</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.08.1989</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sarajevo</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Brüggen</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>kaur</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Manpreet</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>10-05-1999</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Aithal, Haridwar</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Telgte</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Strbac</t>
+          <t>Avci</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bojana</t>
+          <t>Kamber</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20.08.1989</t>
+          <t>07.07.1993</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Adıyaman</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Brüggen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,45 +518,92 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Strbac</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bojana</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.08.1989</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sarajevo</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Brüggen</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>kaur</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Manpreet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>10-05-1999</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Aithal, Haridwar</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Telgte</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Avci</t>
+          <t>BANSAN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kamber</t>
+          <t>ETSE JACQUES</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07.07.1993</t>
+          <t>22.06.2000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Adıyaman</t>
+          <t>AFAGNAN</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Strbac</t>
+          <t>Avci</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bojana</t>
+          <t>Kamber</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20.08.1989</t>
+          <t>07.07.1993</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>Adıyaman</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Brüggen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,45 +565,92 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Strbac</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bojana</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.08.1989</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sarajevo</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Brüggen</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>kaur</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Manpreet</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>10-05-1999</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Aithal, Haridwar</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Telgte</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
